--- a/data/pca/factorExposure/factorExposure_2010-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-21.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01660327623915851</v>
+        <v>-0.01719638551359188</v>
       </c>
       <c r="C2">
-        <v>-0.001312082556750154</v>
+        <v>0.0009783655528455648</v>
       </c>
       <c r="D2">
-        <v>0.01759760561351567</v>
+        <v>0.009296265836393208</v>
       </c>
       <c r="E2">
-        <v>0.007747465476941516</v>
+        <v>-0.000225980643380773</v>
       </c>
       <c r="F2">
-        <v>0.01724006141574244</v>
+        <v>-0.0128997799719262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1211986094827045</v>
+        <v>-0.09468803523881245</v>
       </c>
       <c r="C4">
-        <v>-0.1038584626535539</v>
+        <v>0.01743768532320477</v>
       </c>
       <c r="D4">
-        <v>-0.01747506160050095</v>
+        <v>0.08205535576512127</v>
       </c>
       <c r="E4">
-        <v>-0.004871242374512052</v>
+        <v>0.02966222258836189</v>
       </c>
       <c r="F4">
-        <v>0.07051967727116414</v>
+        <v>0.03465831650869757</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1302803030507107</v>
+        <v>-0.1522518590429278</v>
       </c>
       <c r="C6">
-        <v>-0.0643112044155377</v>
+        <v>0.02453642170229065</v>
       </c>
       <c r="D6">
-        <v>0.002431124606687393</v>
+        <v>-0.02291269024789748</v>
       </c>
       <c r="E6">
-        <v>-0.07583802305290552</v>
+        <v>0.009002367224486562</v>
       </c>
       <c r="F6">
-        <v>0.04440752333313574</v>
+        <v>0.04048329672276601</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06636405677998344</v>
+        <v>-0.06126690220085557</v>
       </c>
       <c r="C7">
-        <v>-0.06993764229078686</v>
+        <v>-0.0001586397247009745</v>
       </c>
       <c r="D7">
-        <v>0.007383378627267221</v>
+        <v>0.05184112197683796</v>
       </c>
       <c r="E7">
-        <v>0.03224760303380771</v>
+        <v>0.01636192313012234</v>
       </c>
       <c r="F7">
-        <v>0.005037421744938556</v>
+        <v>0.05465115529772494</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04242432223796403</v>
+        <v>-0.05904729822888412</v>
       </c>
       <c r="C8">
-        <v>-0.03290127007847001</v>
+        <v>-0.01287887749161309</v>
       </c>
       <c r="D8">
-        <v>-4.710493679344523e-05</v>
+        <v>0.03019613071852533</v>
       </c>
       <c r="E8">
-        <v>-0.05644006348638746</v>
+        <v>0.01395932482949335</v>
       </c>
       <c r="F8">
-        <v>0.06757428543824141</v>
+        <v>-0.02876077528086913</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08510382578289068</v>
+        <v>-0.07234086638642892</v>
       </c>
       <c r="C9">
-        <v>-0.0761570784398474</v>
+        <v>0.01366638572588534</v>
       </c>
       <c r="D9">
-        <v>-0.02804712537147865</v>
+        <v>0.08182097126314879</v>
       </c>
       <c r="E9">
-        <v>-0.005673485268422863</v>
+        <v>0.02523619491923585</v>
       </c>
       <c r="F9">
-        <v>0.05107645858886923</v>
+        <v>0.05671910603323827</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1332297515051265</v>
+        <v>-0.09331149972203172</v>
       </c>
       <c r="C10">
-        <v>0.1608517399407354</v>
+        <v>0.01567008289204823</v>
       </c>
       <c r="D10">
-        <v>0.02231769850105602</v>
+        <v>-0.1709320460033969</v>
       </c>
       <c r="E10">
-        <v>0.01388797713431437</v>
+        <v>-0.03624065386582256</v>
       </c>
       <c r="F10">
-        <v>0.02843558705631183</v>
+        <v>-0.05208970952362894</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07154145777091872</v>
+        <v>-0.08836330594353363</v>
       </c>
       <c r="C11">
-        <v>-0.06761472023404667</v>
+        <v>0.01289528002313408</v>
       </c>
       <c r="D11">
-        <v>-0.03524181725526411</v>
+        <v>0.1128671528110516</v>
       </c>
       <c r="E11">
-        <v>-0.01695240309889432</v>
+        <v>0.04634846017026671</v>
       </c>
       <c r="F11">
-        <v>0.04238424831147047</v>
+        <v>0.02401749927965011</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.06451145558848524</v>
+        <v>-0.09352108553320909</v>
       </c>
       <c r="C12">
-        <v>-0.07050279251811094</v>
+        <v>0.0108570254893034</v>
       </c>
       <c r="D12">
-        <v>-0.0503677386656381</v>
+        <v>0.1203708491492323</v>
       </c>
       <c r="E12">
-        <v>0.02413993451758242</v>
+        <v>0.04562098596154576</v>
       </c>
       <c r="F12">
-        <v>-0.003509258141623021</v>
+        <v>0.02562530516697989</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03698666450607482</v>
+        <v>-0.04423065974985212</v>
       </c>
       <c r="C13">
-        <v>-0.04327399206131156</v>
+        <v>0.004516814836390344</v>
       </c>
       <c r="D13">
-        <v>0.01807875567322535</v>
+        <v>0.04561000582195917</v>
       </c>
       <c r="E13">
-        <v>0.0287727751732164</v>
+        <v>-0.01217655179420917</v>
       </c>
       <c r="F13">
-        <v>0.003140886047570085</v>
+        <v>0.01651738517071574</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02753411108887073</v>
+        <v>-0.02156627037282398</v>
       </c>
       <c r="C14">
-        <v>-0.02299815789541737</v>
+        <v>0.01479811720455457</v>
       </c>
       <c r="D14">
-        <v>-0.02367713871067292</v>
+        <v>0.03204987331907679</v>
       </c>
       <c r="E14">
-        <v>-0.01204224095761481</v>
+        <v>0.01843840040514929</v>
       </c>
       <c r="F14">
-        <v>0.004820540215396254</v>
+        <v>0.02028914355867865</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01748268267506314</v>
+        <v>-0.03223004459460491</v>
       </c>
       <c r="C15">
-        <v>-0.02413198922259551</v>
+        <v>0.005647554642349019</v>
       </c>
       <c r="D15">
-        <v>0.06405455666645933</v>
+        <v>0.04493581581273656</v>
       </c>
       <c r="E15">
-        <v>0.01723911208302869</v>
+        <v>0.009089600616625356</v>
       </c>
       <c r="F15">
-        <v>0.01063394893692315</v>
+        <v>0.03171804995747934</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07605205614658811</v>
+        <v>-0.07511915759125856</v>
       </c>
       <c r="C16">
-        <v>-0.06762852937719717</v>
+        <v>0.00453188847803554</v>
       </c>
       <c r="D16">
-        <v>-0.044640605312449</v>
+        <v>0.1150198773706336</v>
       </c>
       <c r="E16">
-        <v>-0.01710607690271307</v>
+        <v>0.06124986882407436</v>
       </c>
       <c r="F16">
-        <v>0.02364851102062425</v>
+        <v>0.03341224843037841</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02120640903615899</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003796890679746769</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02143690433453908</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01142027086182105</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02431524872461035</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04295188523351574</v>
+        <v>-0.06165616175758912</v>
       </c>
       <c r="C20">
-        <v>-0.03003680744541202</v>
+        <v>0.002230191349728629</v>
       </c>
       <c r="D20">
-        <v>0.02911652467420055</v>
+        <v>0.07179599664913663</v>
       </c>
       <c r="E20">
-        <v>-0.008447455197969704</v>
+        <v>0.0538482872966316</v>
       </c>
       <c r="F20">
-        <v>-0.0005923712714835873</v>
+        <v>0.02875652750310313</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02459878868439687</v>
+        <v>-0.0388272441291025</v>
       </c>
       <c r="C21">
-        <v>-0.02001196594654769</v>
+        <v>0.007766269342497973</v>
       </c>
       <c r="D21">
-        <v>-0.01621115528459728</v>
+        <v>0.03516222000124767</v>
       </c>
       <c r="E21">
-        <v>-0.02472179191628108</v>
+        <v>-0.009368589810526799</v>
       </c>
       <c r="F21">
-        <v>0.01021767397930354</v>
+        <v>-0.01900945151688922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05759186950038691</v>
+        <v>-0.04299932530486254</v>
       </c>
       <c r="C22">
-        <v>-0.03237710063794651</v>
+        <v>0.0003506359031405064</v>
       </c>
       <c r="D22">
-        <v>0.6355072986187827</v>
+        <v>0.00180437973526798</v>
       </c>
       <c r="E22">
-        <v>0.03547631956995548</v>
+        <v>0.0298844994238917</v>
       </c>
       <c r="F22">
-        <v>-0.176003174956837</v>
+        <v>-0.01340436380223502</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05817329576139423</v>
+        <v>-0.04304255174869939</v>
       </c>
       <c r="C23">
-        <v>-0.03415610383217594</v>
+        <v>0.0003730521068260308</v>
       </c>
       <c r="D23">
-        <v>0.6378129735408052</v>
+        <v>0.001973651377515236</v>
       </c>
       <c r="E23">
-        <v>0.03343476500259968</v>
+        <v>0.03024254311755769</v>
       </c>
       <c r="F23">
-        <v>-0.174146697327831</v>
+        <v>-0.01283818315917156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07781599579659947</v>
+        <v>-0.08162391474411636</v>
       </c>
       <c r="C24">
-        <v>-0.06640914466593785</v>
+        <v>0.004738322702625831</v>
       </c>
       <c r="D24">
-        <v>-0.03908671128369882</v>
+        <v>0.1162062538665922</v>
       </c>
       <c r="E24">
-        <v>-0.003635929730349768</v>
+        <v>0.0492638566686399</v>
       </c>
       <c r="F24">
-        <v>0.01639988480902474</v>
+        <v>0.02521423972587487</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07724814594384728</v>
+        <v>-0.08590317965616341</v>
       </c>
       <c r="C25">
-        <v>-0.06176962161451468</v>
+        <v>0.006719913556842055</v>
       </c>
       <c r="D25">
-        <v>-0.05463705543825291</v>
+        <v>0.1037270688297072</v>
       </c>
       <c r="E25">
-        <v>0.007537708448735055</v>
+        <v>0.03204497880434555</v>
       </c>
       <c r="F25">
-        <v>0.02967258258995719</v>
+        <v>0.03287559588669543</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0388078226729244</v>
+        <v>-0.0558904240188631</v>
       </c>
       <c r="C26">
-        <v>0.001379697243979257</v>
+        <v>0.01561797129836381</v>
       </c>
       <c r="D26">
-        <v>0.01304394581350038</v>
+        <v>0.03360600081971397</v>
       </c>
       <c r="E26">
-        <v>-0.05164644763360607</v>
+        <v>0.02567420043115527</v>
       </c>
       <c r="F26">
-        <v>-0.03010077551585008</v>
+        <v>-0.007020927183899757</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1616256502731523</v>
+        <v>-0.1395873042817987</v>
       </c>
       <c r="C28">
-        <v>0.2743470317207306</v>
+        <v>0.01340121882266587</v>
       </c>
       <c r="D28">
-        <v>-0.00310031802695168</v>
+        <v>-0.270255632075495</v>
       </c>
       <c r="E28">
-        <v>-0.03738297827348761</v>
+        <v>-0.06690500245748798</v>
       </c>
       <c r="F28">
-        <v>0.002448858830279884</v>
+        <v>0.03485044767087515</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02973390901525132</v>
+        <v>-0.02707713028469691</v>
       </c>
       <c r="C29">
-        <v>-0.02592257716446552</v>
+        <v>0.009149984200110553</v>
       </c>
       <c r="D29">
-        <v>-0.02612766108035396</v>
+        <v>0.03071974318245398</v>
       </c>
       <c r="E29">
-        <v>-0.001788846127963913</v>
+        <v>0.01133882137225985</v>
       </c>
       <c r="F29">
-        <v>-0.009519776660036432</v>
+        <v>-0.01047874821069495</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09341894057824897</v>
+        <v>-0.06454394080018268</v>
       </c>
       <c r="C30">
-        <v>-0.06393776455602948</v>
+        <v>0.006455787456736929</v>
       </c>
       <c r="D30">
-        <v>-0.03039134574873192</v>
+        <v>0.08000049669167365</v>
       </c>
       <c r="E30">
-        <v>-0.1249677098925017</v>
+        <v>0.02334913565178074</v>
       </c>
       <c r="F30">
-        <v>-0.1723173022778897</v>
+        <v>0.1155710406847656</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03084552097843715</v>
+        <v>-0.04871027270357887</v>
       </c>
       <c r="C31">
-        <v>-0.05855351541493374</v>
+        <v>0.01517408200509419</v>
       </c>
       <c r="D31">
-        <v>-0.003755513267572013</v>
+        <v>0.02899744266310909</v>
       </c>
       <c r="E31">
-        <v>0.007361722293422475</v>
+        <v>0.02742713483497905</v>
       </c>
       <c r="F31">
-        <v>0.02295331581447173</v>
+        <v>-0.002733191855426631</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0508771449121211</v>
+        <v>-0.04891050455247446</v>
       </c>
       <c r="C32">
-        <v>-0.01960612533812161</v>
+        <v>0.0004531882375245363</v>
       </c>
       <c r="D32">
-        <v>-0.05326690045590179</v>
+        <v>0.02987597451433574</v>
       </c>
       <c r="E32">
-        <v>-0.05931434158639921</v>
+        <v>0.02930147337975011</v>
       </c>
       <c r="F32">
-        <v>0.06717352980890638</v>
+        <v>0.0005957583959363812</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08299350779386278</v>
+        <v>-0.09067021998329723</v>
       </c>
       <c r="C33">
-        <v>-0.05778368165791335</v>
+        <v>0.009852416623911089</v>
       </c>
       <c r="D33">
-        <v>-0.03500915844802999</v>
+        <v>0.09164666513828973</v>
       </c>
       <c r="E33">
-        <v>0.008957337302194545</v>
+        <v>0.04571729800559966</v>
       </c>
       <c r="F33">
-        <v>-0.01446232722529516</v>
+        <v>0.04014726283826557</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06804988895678435</v>
+        <v>-0.06913293841336834</v>
       </c>
       <c r="C34">
-        <v>-0.05577562678260985</v>
+        <v>0.01283302229483277</v>
       </c>
       <c r="D34">
-        <v>-0.04246441641479901</v>
+        <v>0.09685190874246684</v>
       </c>
       <c r="E34">
-        <v>-0.01880800521928495</v>
+        <v>0.03402968171816395</v>
       </c>
       <c r="F34">
-        <v>0.03072585404932678</v>
+        <v>0.04741083383392537</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01293930752823992</v>
+        <v>-0.02438446208187504</v>
       </c>
       <c r="C35">
-        <v>-0.008703366664750585</v>
+        <v>0.002691466487315657</v>
       </c>
       <c r="D35">
-        <v>-0.0004541779291331652</v>
+        <v>0.0102777521714337</v>
       </c>
       <c r="E35">
-        <v>-0.005837305428573611</v>
+        <v>0.01107536795868929</v>
       </c>
       <c r="F35">
-        <v>0.006614248298699223</v>
+        <v>0.01154250747971742</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02277323824849974</v>
+        <v>-0.02516174821481952</v>
       </c>
       <c r="C36">
-        <v>-0.01170129766120706</v>
+        <v>0.007258521731549566</v>
       </c>
       <c r="D36">
-        <v>0.009932836148153256</v>
+        <v>0.03752676537810151</v>
       </c>
       <c r="E36">
-        <v>-0.01890431538159523</v>
+        <v>0.01689811177203878</v>
       </c>
       <c r="F36">
-        <v>-0.0001514156293051017</v>
+        <v>0.00777265514384311</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0170617408453105</v>
+        <v>-0.002516538642556566</v>
       </c>
       <c r="C38">
-        <v>-0.03336740910227661</v>
+        <v>0.0004381775899437007</v>
       </c>
       <c r="D38">
-        <v>0.02174278153267325</v>
+        <v>0.002053320343977513</v>
       </c>
       <c r="E38">
-        <v>0.03610180181032531</v>
+        <v>0.002851773323218432</v>
       </c>
       <c r="F38">
-        <v>-0.09203551187700662</v>
+        <v>-0.002074498223469641</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1071893697335997</v>
+        <v>-0.1104060232427978</v>
       </c>
       <c r="C39">
-        <v>-0.09152150031364117</v>
+        <v>0.01841185343241567</v>
       </c>
       <c r="D39">
-        <v>-0.1432827748826678</v>
+        <v>0.1485317753249377</v>
       </c>
       <c r="E39">
-        <v>-0.06457525818266838</v>
+        <v>0.05702007887464383</v>
       </c>
       <c r="F39">
-        <v>-0.05222268936341102</v>
+        <v>0.03463412976076254</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02613360230428148</v>
+        <v>-0.03753827750876696</v>
       </c>
       <c r="C40">
-        <v>-0.06467239315925667</v>
+        <v>0.007587676478585353</v>
       </c>
       <c r="D40">
-        <v>0.02379714368277589</v>
+        <v>0.03036252433339519</v>
       </c>
       <c r="E40">
-        <v>0.03520958575497053</v>
+        <v>0.004261453921348038</v>
       </c>
       <c r="F40">
-        <v>0.007666393383486997</v>
+        <v>-0.020562486455659</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03633231391947101</v>
+        <v>-0.0267478206691714</v>
       </c>
       <c r="C41">
-        <v>-0.02799874555526629</v>
+        <v>0.006973277938465494</v>
       </c>
       <c r="D41">
-        <v>-0.01927206820351055</v>
+        <v>0.01082786986434731</v>
       </c>
       <c r="E41">
-        <v>-0.00102088207790648</v>
+        <v>0.01230775227487521</v>
       </c>
       <c r="F41">
-        <v>-0.00669775118499508</v>
+        <v>-0.01121017689666871</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04461111475742056</v>
+        <v>-0.04242655478376128</v>
       </c>
       <c r="C43">
-        <v>-0.03533133146990941</v>
+        <v>0.007198271247859409</v>
       </c>
       <c r="D43">
-        <v>0.0074603247110801</v>
+        <v>0.02105914489483195</v>
       </c>
       <c r="E43">
-        <v>-0.0100960430087362</v>
+        <v>0.0259708038876914</v>
       </c>
       <c r="F43">
-        <v>-0.0193391563589587</v>
+        <v>-0.01184847876659352</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09940244369576809</v>
+        <v>-0.07313447462090587</v>
       </c>
       <c r="C44">
-        <v>-0.1096990997988876</v>
+        <v>0.02255567515620224</v>
       </c>
       <c r="D44">
-        <v>0.07507707511615479</v>
+        <v>0.09878274716136889</v>
       </c>
       <c r="E44">
-        <v>0.04167508407313329</v>
+        <v>0.06775398142295133</v>
       </c>
       <c r="F44">
-        <v>-0.03444037168236015</v>
+        <v>0.173719824576075</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02608304792156215</v>
+        <v>-0.02310221940429812</v>
       </c>
       <c r="C46">
-        <v>-0.004481358244131398</v>
+        <v>0.004093735888655848</v>
       </c>
       <c r="D46">
-        <v>0.025707578898481</v>
+        <v>0.01151226922338345</v>
       </c>
       <c r="E46">
-        <v>0.021200652254581</v>
+        <v>0.02365629574962882</v>
       </c>
       <c r="F46">
-        <v>-0.04805059118737159</v>
+        <v>-0.001672870545628595</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04510107703211836</v>
+        <v>-0.05293153515558458</v>
       </c>
       <c r="C47">
-        <v>-0.0360858090629916</v>
+        <v>0.003449419419586655</v>
       </c>
       <c r="D47">
-        <v>0.0002342287974841292</v>
+        <v>0.0127895488137405</v>
       </c>
       <c r="E47">
-        <v>0.00148841724261209</v>
+        <v>0.02206429609316308</v>
       </c>
       <c r="F47">
-        <v>0.004515785956756397</v>
+        <v>-0.04643430288925192</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04255140772174244</v>
+        <v>-0.04785032843943027</v>
       </c>
       <c r="C48">
-        <v>-0.01459894465632544</v>
+        <v>0.003296565853836901</v>
       </c>
       <c r="D48">
-        <v>-0.01541718912761673</v>
+        <v>0.04597912916929369</v>
       </c>
       <c r="E48">
-        <v>0.006081627091096956</v>
+        <v>-0.005773799978360346</v>
       </c>
       <c r="F48">
-        <v>0.02235572340639495</v>
+        <v>0.01358239853261352</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.219996222864873</v>
+        <v>-0.2031228017210021</v>
       </c>
       <c r="C49">
-        <v>-0.01599189643901984</v>
+        <v>0.01705059421565503</v>
       </c>
       <c r="D49">
-        <v>-0.03720493664457819</v>
+        <v>-0.009831795978051311</v>
       </c>
       <c r="E49">
-        <v>0.184870538176904</v>
+        <v>0.03760045079295444</v>
       </c>
       <c r="F49">
-        <v>-0.08961488475537438</v>
+        <v>0.03307763464285102</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03918376660692134</v>
+        <v>-0.04856996350176451</v>
       </c>
       <c r="C50">
-        <v>-0.03058181285515756</v>
+        <v>0.01120598884517391</v>
       </c>
       <c r="D50">
-        <v>-0.0201415042629965</v>
+        <v>0.02574046808836134</v>
       </c>
       <c r="E50">
-        <v>-0.02532204881815812</v>
+        <v>0.02869961589597122</v>
       </c>
       <c r="F50">
-        <v>-0.01272047691811667</v>
+        <v>0.007465551583531959</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02505756424478123</v>
+        <v>-0.003391492973667504</v>
       </c>
       <c r="C51">
-        <v>0.005929695125990908</v>
+        <v>0.0008210385833711542</v>
       </c>
       <c r="D51">
-        <v>0.004347312068423949</v>
+        <v>-0.002159403768507138</v>
       </c>
       <c r="E51">
-        <v>0.03142522277051683</v>
+        <v>0.0008919213670581408</v>
       </c>
       <c r="F51">
-        <v>0.02278833125581996</v>
+        <v>0.005160865820383729</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.07118232023855524</v>
+        <v>-0.1438845853961746</v>
       </c>
       <c r="C52">
-        <v>-0.06595820972825243</v>
+        <v>0.01311515425755362</v>
       </c>
       <c r="D52">
-        <v>-0.0242286089384448</v>
+        <v>0.05045719008364923</v>
       </c>
       <c r="E52">
-        <v>-0.06680987244835013</v>
+        <v>0.020006445579555</v>
       </c>
       <c r="F52">
-        <v>-0.02419702046753767</v>
+        <v>0.0362485223639731</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1586324209243581</v>
+        <v>-0.1733165970169319</v>
       </c>
       <c r="C53">
-        <v>-0.07587768744200062</v>
+        <v>0.01593287510589659</v>
       </c>
       <c r="D53">
-        <v>0.01278751552226141</v>
+        <v>0.01418250860877758</v>
       </c>
       <c r="E53">
-        <v>-0.03618934182854554</v>
+        <v>0.03601524277525425</v>
       </c>
       <c r="F53">
-        <v>-0.05768511882237522</v>
+        <v>0.06914969926363979</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05600704232152684</v>
+        <v>-0.02271825807557918</v>
       </c>
       <c r="C54">
-        <v>-0.0684802242333338</v>
+        <v>0.01271711921626417</v>
       </c>
       <c r="D54">
-        <v>-0.002455553448491955</v>
+        <v>0.03309146998245915</v>
       </c>
       <c r="E54">
-        <v>-0.01780558320347366</v>
+        <v>0.01493335928381317</v>
       </c>
       <c r="F54">
-        <v>0.05576821651802896</v>
+        <v>-0.003991894432038105</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08142075245393628</v>
+        <v>-0.1142796617629289</v>
       </c>
       <c r="C55">
-        <v>-0.05154645911587213</v>
+        <v>0.01464300256819753</v>
       </c>
       <c r="D55">
-        <v>-0.03571401552991409</v>
+        <v>0.01301871671761712</v>
       </c>
       <c r="E55">
-        <v>0.007670867341705537</v>
+        <v>0.03023069762114878</v>
       </c>
       <c r="F55">
-        <v>-0.01101431322685278</v>
+        <v>0.0508780689266177</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1438019201779973</v>
+        <v>-0.1772942895967171</v>
       </c>
       <c r="C56">
-        <v>-0.08777016951515793</v>
+        <v>0.01335849575832262</v>
       </c>
       <c r="D56">
-        <v>-0.03037455863391782</v>
+        <v>0.008278772203449731</v>
       </c>
       <c r="E56">
-        <v>0.03406211797946448</v>
+        <v>0.03977738230394264</v>
       </c>
       <c r="F56">
-        <v>-0.05632606136845376</v>
+        <v>0.04041418943733782</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04947543861140325</v>
+        <v>-0.04714621384340022</v>
       </c>
       <c r="C58">
-        <v>-0.0406987213987959</v>
+        <v>0.00305005150636572</v>
       </c>
       <c r="D58">
-        <v>0.03777727556233484</v>
+        <v>0.06381838383139261</v>
       </c>
       <c r="E58">
-        <v>0.0270829153136188</v>
+        <v>0.02159381553857741</v>
       </c>
       <c r="F58">
-        <v>-0.03960701251566948</v>
+        <v>-0.05021878667302729</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2209395653824812</v>
+        <v>-0.1707450124044176</v>
       </c>
       <c r="C59">
-        <v>0.2288799602503834</v>
+        <v>0.01505898364498608</v>
       </c>
       <c r="D59">
-        <v>-0.03987803260000409</v>
+        <v>-0.2288777532111862</v>
       </c>
       <c r="E59">
-        <v>0.001982837221484612</v>
+        <v>-0.0482479070139961</v>
       </c>
       <c r="F59">
-        <v>0.08809910220611553</v>
+        <v>-0.03397917665192576</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2261265637681319</v>
+        <v>-0.2378247751388018</v>
       </c>
       <c r="C60">
-        <v>-0.1386606497580303</v>
+        <v>-0.004303600810770837</v>
       </c>
       <c r="D60">
-        <v>-0.07896255583066407</v>
+        <v>0.05009080162269492</v>
       </c>
       <c r="E60">
-        <v>0.1141305837747143</v>
+        <v>0.008619312068118036</v>
       </c>
       <c r="F60">
-        <v>-0.07421145415744625</v>
+        <v>-0.03696202644220208</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1089227702202873</v>
+        <v>-0.08523859419216881</v>
       </c>
       <c r="C61">
-        <v>-0.07382372769584759</v>
+        <v>0.01441559777089552</v>
       </c>
       <c r="D61">
-        <v>-0.08350401046942112</v>
+        <v>0.1094997445372998</v>
       </c>
       <c r="E61">
-        <v>-0.02663377390056879</v>
+        <v>0.03937583022085962</v>
       </c>
       <c r="F61">
-        <v>-0.01896121254357644</v>
+        <v>0.01861268909761443</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1398884315509139</v>
+        <v>-0.1696067008164414</v>
       </c>
       <c r="C62">
-        <v>-0.07495719290394726</v>
+        <v>0.01727545911641636</v>
       </c>
       <c r="D62">
-        <v>-0.001874654156003773</v>
+        <v>0.01251772835532627</v>
       </c>
       <c r="E62">
-        <v>0.02337907379836357</v>
+        <v>0.03709935895067902</v>
       </c>
       <c r="F62">
-        <v>-0.06770835243457041</v>
+        <v>0.02075654405367831</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04630857805548248</v>
+        <v>-0.04273195616215904</v>
       </c>
       <c r="C63">
-        <v>-0.02889025750860232</v>
+        <v>0.00399582835809896</v>
       </c>
       <c r="D63">
-        <v>-0.009080487911916459</v>
+        <v>0.04884575801569158</v>
       </c>
       <c r="E63">
-        <v>-0.04049476345320336</v>
+        <v>0.01972786418529174</v>
       </c>
       <c r="F63">
-        <v>0.01495181438345107</v>
+        <v>0.009643138546207573</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.092160258181727</v>
+        <v>-0.1122591384220789</v>
       </c>
       <c r="C64">
-        <v>-0.06053076659980836</v>
+        <v>0.01189894942488946</v>
       </c>
       <c r="D64">
-        <v>-0.008142492308967301</v>
+        <v>0.04141873792601195</v>
       </c>
       <c r="E64">
-        <v>0.032747196628427</v>
+        <v>0.02032675877835443</v>
       </c>
       <c r="F64">
-        <v>-0.05674912804014876</v>
+        <v>0.01859818224365357</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.117734575620368</v>
+        <v>-0.1435792050108803</v>
       </c>
       <c r="C65">
-        <v>-0.04847146569549788</v>
+        <v>0.03111355829880099</v>
       </c>
       <c r="D65">
-        <v>-0.01999405394810926</v>
+        <v>-0.0450213785108271</v>
       </c>
       <c r="E65">
-        <v>-0.08946565227422214</v>
+        <v>0.0003285072882627345</v>
       </c>
       <c r="F65">
-        <v>-0.006696284336683081</v>
+        <v>0.04283739586872116</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.120280023267374</v>
+        <v>-0.1320054286565453</v>
       </c>
       <c r="C66">
-        <v>-0.1125817033137854</v>
+        <v>0.0159041888893889</v>
       </c>
       <c r="D66">
-        <v>-0.1355659744988842</v>
+        <v>0.136064428938535</v>
       </c>
       <c r="E66">
-        <v>-0.05260992904870881</v>
+        <v>0.0639082758355701</v>
       </c>
       <c r="F66">
-        <v>-0.09945439101861385</v>
+        <v>0.03959920765785754</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06276761853410172</v>
+        <v>-0.06388868971859434</v>
       </c>
       <c r="C67">
-        <v>-0.03414244666615893</v>
+        <v>0.003787005837225088</v>
       </c>
       <c r="D67">
-        <v>0.03421277927607759</v>
+        <v>0.05502536080506928</v>
       </c>
       <c r="E67">
-        <v>0.05317516680669111</v>
+        <v>0.02027390371286338</v>
       </c>
       <c r="F67">
-        <v>-0.07565016121709012</v>
+        <v>-0.04280077653329924</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1373082790020282</v>
+        <v>-0.113912921508169</v>
       </c>
       <c r="C68">
-        <v>0.2441140573485414</v>
+        <v>0.02445205378455232</v>
       </c>
       <c r="D68">
-        <v>-0.01326686939464445</v>
+        <v>-0.2670329648529179</v>
       </c>
       <c r="E68">
-        <v>-0.04343859094211021</v>
+        <v>-0.08512873421687456</v>
       </c>
       <c r="F68">
-        <v>0.01794735960465111</v>
+        <v>0.04161439786907077</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04550358502535043</v>
+        <v>-0.04031467056417933</v>
       </c>
       <c r="C69">
-        <v>-0.002329316689785029</v>
+        <v>0.001223310545769075</v>
       </c>
       <c r="D69">
-        <v>0.003082609264594779</v>
+        <v>0.009369815490880574</v>
       </c>
       <c r="E69">
-        <v>-0.04426307788624427</v>
+        <v>0.0246024692532959</v>
       </c>
       <c r="F69">
-        <v>-0.01698601898513542</v>
+        <v>-0.01463289982454793</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04454851584705707</v>
+        <v>-0.06469586109634631</v>
       </c>
       <c r="C70">
-        <v>-0.02030832886842148</v>
+        <v>-0.0274763715841657</v>
       </c>
       <c r="D70">
-        <v>-0.03682015122657204</v>
+        <v>0.02570767857202476</v>
       </c>
       <c r="E70">
-        <v>-0.0128427611131666</v>
+        <v>-0.04778712570312029</v>
       </c>
       <c r="F70">
-        <v>-0.0348769972362144</v>
+        <v>-0.3109779788443545</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1546246665558447</v>
+        <v>-0.1326777244592121</v>
       </c>
       <c r="C71">
-        <v>0.2682335572600136</v>
+        <v>0.02859481798308754</v>
       </c>
       <c r="D71">
-        <v>-0.009082124120158762</v>
+        <v>-0.2830749437664266</v>
       </c>
       <c r="E71">
-        <v>-0.04276705161345294</v>
+        <v>-0.09301557255804428</v>
       </c>
       <c r="F71">
-        <v>-0.01814249256282847</v>
+        <v>0.04437140059053872</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1397133847581685</v>
+        <v>-0.1382545796006328</v>
       </c>
       <c r="C72">
-        <v>-0.03328603762010181</v>
+        <v>0.02427253141194137</v>
       </c>
       <c r="D72">
-        <v>-0.004439161545798381</v>
+        <v>0.004637961304395614</v>
       </c>
       <c r="E72">
-        <v>-0.02647700242023096</v>
+        <v>0.04301628963010173</v>
       </c>
       <c r="F72">
-        <v>-0.04186812716155509</v>
+        <v>0.02323487847626177</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2135891617235396</v>
+        <v>-0.2061232033671224</v>
       </c>
       <c r="C73">
-        <v>-0.05106846098387344</v>
+        <v>0.01153088915684622</v>
       </c>
       <c r="D73">
-        <v>-0.1226209488711507</v>
+        <v>0.01567029910468921</v>
       </c>
       <c r="E73">
-        <v>0.2529977481910334</v>
+        <v>0.06379302969253055</v>
       </c>
       <c r="F73">
-        <v>-0.2033361090618549</v>
+        <v>0.03063664378052717</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1060721050354721</v>
+        <v>-0.09397861827209009</v>
       </c>
       <c r="C74">
-        <v>-0.09404883893917362</v>
+        <v>0.01193621911675984</v>
       </c>
       <c r="D74">
-        <v>-0.01126759793408817</v>
+        <v>0.02362462343146862</v>
       </c>
       <c r="E74">
-        <v>-0.03196816235519013</v>
+        <v>0.0488644419863381</v>
       </c>
       <c r="F74">
-        <v>-0.08613038639623231</v>
+        <v>0.04338561995696952</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1003438700376128</v>
+        <v>-0.1299722454683148</v>
       </c>
       <c r="C75">
-        <v>-0.07273075515485224</v>
+        <v>0.02624820485030136</v>
       </c>
       <c r="D75">
-        <v>-0.005851455232510153</v>
+        <v>0.03424253310126767</v>
       </c>
       <c r="E75">
-        <v>0.0007254248134099308</v>
+        <v>0.05970813393915875</v>
       </c>
       <c r="F75">
-        <v>0.01630195551450598</v>
+        <v>0.01332972230086847</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.04093210661828187</v>
+        <v>-0.005648343140420893</v>
       </c>
       <c r="C76">
-        <v>-0.0231677313160637</v>
+        <v>0.001274340149651814</v>
       </c>
       <c r="D76">
-        <v>-0.003765429964501851</v>
+        <v>-0.0002184065927193214</v>
       </c>
       <c r="E76">
-        <v>0.03173255321079307</v>
+        <v>0.004030225597072341</v>
       </c>
       <c r="F76">
-        <v>0.003278215584427231</v>
+        <v>0.004284509782097499</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06776490370796565</v>
+        <v>-0.07961459445157254</v>
       </c>
       <c r="C77">
-        <v>-0.0317521691812284</v>
+        <v>0.01050197348990653</v>
       </c>
       <c r="D77">
-        <v>-0.03505387491726663</v>
+        <v>0.1087036348365723</v>
       </c>
       <c r="E77">
-        <v>-0.02590628098583428</v>
+        <v>0.03569908003157353</v>
       </c>
       <c r="F77">
-        <v>0.06842073700899139</v>
+        <v>0.03074091261973411</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.133344665553521</v>
+        <v>-0.1077195069238276</v>
       </c>
       <c r="C78">
-        <v>-0.131605177901873</v>
+        <v>0.04225851155076565</v>
       </c>
       <c r="D78">
-        <v>0.1998820618080426</v>
+        <v>0.117825989357022</v>
       </c>
       <c r="E78">
-        <v>0.1336329035973389</v>
+        <v>0.08736151586141667</v>
       </c>
       <c r="F78">
-        <v>0.8454153682645751</v>
+        <v>0.071915067060949</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1337201163356151</v>
+        <v>-0.163900910535496</v>
       </c>
       <c r="C79">
-        <v>-0.09059488857210204</v>
+        <v>0.02027986591506749</v>
       </c>
       <c r="D79">
-        <v>0.005575895452713577</v>
+        <v>0.02011538877568286</v>
       </c>
       <c r="E79">
-        <v>0.01668791882285006</v>
+        <v>0.04735907586291655</v>
       </c>
       <c r="F79">
-        <v>-0.04305543058264906</v>
+        <v>0.01209187589897394</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07239033706960443</v>
+        <v>-0.08049233142609891</v>
       </c>
       <c r="C80">
-        <v>-0.05895517868677737</v>
+        <v>-0.0005001855635612223</v>
       </c>
       <c r="D80">
-        <v>-0.07814939893340414</v>
+        <v>0.05631351510656789</v>
       </c>
       <c r="E80">
-        <v>-0.06080480125599116</v>
+        <v>0.03302076714086201</v>
       </c>
       <c r="F80">
-        <v>0.04297450585113707</v>
+        <v>-0.01669513519062244</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1306598972143346</v>
+        <v>-0.1234022216771273</v>
       </c>
       <c r="C81">
-        <v>-0.09205121020239353</v>
+        <v>0.03025645521380727</v>
       </c>
       <c r="D81">
-        <v>0.001575381310505974</v>
+        <v>0.01990581236203632</v>
       </c>
       <c r="E81">
-        <v>0.009726504356734731</v>
+        <v>0.05968047794999636</v>
       </c>
       <c r="F81">
-        <v>-0.01223504542399792</v>
+        <v>0.003027150536835059</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.135827373829651</v>
+        <v>-0.1630609825141897</v>
       </c>
       <c r="C82">
-        <v>-0.07395302083498143</v>
+        <v>0.02076037207680768</v>
       </c>
       <c r="D82">
-        <v>-0.01541868647588527</v>
+        <v>0.01712228780510107</v>
       </c>
       <c r="E82">
-        <v>-0.04786969720384598</v>
+        <v>0.0341193692873886</v>
       </c>
       <c r="F82">
-        <v>-0.05869817806935244</v>
+        <v>0.06215269327349116</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08379421628005619</v>
+        <v>-0.06535948610003786</v>
       </c>
       <c r="C83">
-        <v>-0.1620534577353101</v>
+        <v>0.003905352943627477</v>
       </c>
       <c r="D83">
-        <v>-0.01457507221121024</v>
+        <v>0.04925122461402082</v>
       </c>
       <c r="E83">
-        <v>0.003250872647648011</v>
+        <v>0.006032584877973141</v>
       </c>
       <c r="F83">
-        <v>0.0117997283774764</v>
+        <v>-0.04202882838981405</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06087311450248605</v>
+        <v>-0.05949532231027582</v>
       </c>
       <c r="C84">
-        <v>0.09913215408751924</v>
+        <v>0.01143607079834612</v>
       </c>
       <c r="D84">
-        <v>-0.0393460740679864</v>
+        <v>0.06043329743587961</v>
       </c>
       <c r="E84">
-        <v>0.09377195191901645</v>
+        <v>-0.00142520535738096</v>
       </c>
       <c r="F84">
-        <v>0.07063508468297706</v>
+        <v>0.01214082708093837</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1183541051923582</v>
+        <v>-0.1382846744687808</v>
       </c>
       <c r="C85">
-        <v>-0.05901689795884784</v>
+        <v>0.02565597475647758</v>
       </c>
       <c r="D85">
-        <v>-0.007843791592974167</v>
+        <v>0.01522274807660231</v>
       </c>
       <c r="E85">
-        <v>0.03781925560435467</v>
+        <v>0.04026895790493079</v>
       </c>
       <c r="F85">
-        <v>-0.06083877780229862</v>
+        <v>0.04652074917553056</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09264819392286384</v>
+        <v>-0.09818372309791348</v>
       </c>
       <c r="C86">
-        <v>-0.03405126559573039</v>
+        <v>-0.006820208874577145</v>
       </c>
       <c r="D86">
-        <v>0.01411619376370197</v>
+        <v>0.02169439410086115</v>
       </c>
       <c r="E86">
-        <v>0.3134915800173547</v>
+        <v>0.1367153899327408</v>
       </c>
       <c r="F86">
-        <v>0.05595929031584446</v>
+        <v>-0.848278753890133</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1203261169674113</v>
+        <v>-0.099423806479138</v>
       </c>
       <c r="C87">
-        <v>-0.1442604008511751</v>
+        <v>0.02528992739623828</v>
       </c>
       <c r="D87">
-        <v>0.005862263814104261</v>
+        <v>0.07606912915865065</v>
       </c>
       <c r="E87">
-        <v>0.009944439820776512</v>
+        <v>-0.05141079172163589</v>
       </c>
       <c r="F87">
-        <v>0.01556127056718835</v>
+        <v>0.08229468595601253</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05425395864921113</v>
+        <v>-0.0623788817786992</v>
       </c>
       <c r="C88">
-        <v>-0.06148575961207866</v>
+        <v>0.003322805213777755</v>
       </c>
       <c r="D88">
-        <v>-0.04240013293455955</v>
+        <v>0.05352251214968541</v>
       </c>
       <c r="E88">
-        <v>0.00217767603151561</v>
+        <v>0.02732597786503892</v>
       </c>
       <c r="F88">
-        <v>-0.03782334569673126</v>
+        <v>0.009109123675911705</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2248704860899596</v>
+        <v>-0.1338637548169784</v>
       </c>
       <c r="C89">
-        <v>0.3586758512398891</v>
+        <v>0.006964237167568475</v>
       </c>
       <c r="D89">
-        <v>0.06200116202488464</v>
+        <v>-0.2634632131712799</v>
       </c>
       <c r="E89">
-        <v>0.008517630004058366</v>
+        <v>-0.0905512698922691</v>
       </c>
       <c r="F89">
-        <v>0.03756408734509074</v>
+        <v>0.02655260395706368</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1679523211250932</v>
+        <v>-0.1445010515940156</v>
       </c>
       <c r="C90">
-        <v>0.2557378995952644</v>
+        <v>0.0242010129474052</v>
       </c>
       <c r="D90">
-        <v>-0.005483349065236927</v>
+        <v>-0.2712849912067019</v>
       </c>
       <c r="E90">
-        <v>-0.00895621750292731</v>
+        <v>-0.106017988472002</v>
       </c>
       <c r="F90">
-        <v>-0.03125908392865207</v>
+        <v>0.02723225047175418</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.0801466096526659</v>
+        <v>-0.1180251800619106</v>
       </c>
       <c r="C91">
-        <v>-0.06947137799692121</v>
+        <v>0.01654615575632131</v>
       </c>
       <c r="D91">
-        <v>-0.008812995640857215</v>
+        <v>-0.005208509136367431</v>
       </c>
       <c r="E91">
-        <v>-0.0008096739961861383</v>
+        <v>0.05712400540146699</v>
       </c>
       <c r="F91">
-        <v>-0.002647043952909899</v>
+        <v>-0.02153608512849131</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1897855933886104</v>
+        <v>-0.1478272037033781</v>
       </c>
       <c r="C92">
-        <v>0.2952229775983529</v>
+        <v>0.01600929342754642</v>
       </c>
       <c r="D92">
-        <v>0.0325411851105885</v>
+        <v>-0.3021214623422755</v>
       </c>
       <c r="E92">
-        <v>-0.02771002329748617</v>
+        <v>-0.1012082051309954</v>
       </c>
       <c r="F92">
-        <v>0.04760293401818484</v>
+        <v>0.02240084856553292</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1734313356585458</v>
+        <v>-0.1482827791289923</v>
       </c>
       <c r="C93">
-        <v>0.3063286631570295</v>
+        <v>0.02057005080173815</v>
       </c>
       <c r="D93">
-        <v>-0.04087100066984779</v>
+        <v>-0.2728704249152632</v>
       </c>
       <c r="E93">
-        <v>-0.02988759428953261</v>
+        <v>-0.0723116533493556</v>
       </c>
       <c r="F93">
-        <v>-0.0157513699457412</v>
+        <v>0.02035440123384258</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.125006820095148</v>
+        <v>-0.1333918442234391</v>
       </c>
       <c r="C94">
-        <v>-0.07584709237263636</v>
+        <v>0.02364109423960368</v>
       </c>
       <c r="D94">
-        <v>0.004863164577976546</v>
+        <v>0.04721811524213894</v>
       </c>
       <c r="E94">
-        <v>0.02513227618746374</v>
+        <v>0.06088971417230784</v>
       </c>
       <c r="F94">
-        <v>-0.02975246398962239</v>
+        <v>0.03176059591612131</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1163756248510163</v>
+        <v>-0.1261343210779185</v>
       </c>
       <c r="C95">
-        <v>-0.06162006361784407</v>
+        <v>0.00564660637096318</v>
       </c>
       <c r="D95">
-        <v>0.01940287006694017</v>
+        <v>0.09115949185875366</v>
       </c>
       <c r="E95">
-        <v>0.09521952734982221</v>
+        <v>0.04442525265499986</v>
       </c>
       <c r="F95">
-        <v>0.04786268469893583</v>
+        <v>-0.0149968029963746</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.003626223729285798</v>
+        <v>-0.09723886972292511</v>
       </c>
       <c r="C96">
-        <v>-0.01039733200096217</v>
+        <v>-0.989096741328004</v>
       </c>
       <c r="D96">
-        <v>0.001772542678411409</v>
+        <v>-0.02414609792868344</v>
       </c>
       <c r="E96">
-        <v>0.001169225051392028</v>
+        <v>0.05917592830862931</v>
       </c>
       <c r="F96">
-        <v>0.02524794232899464</v>
+        <v>0.04838051373009589</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1485990279592529</v>
+        <v>-0.1873647529730576</v>
       </c>
       <c r="C97">
-        <v>-0.1032662546193954</v>
+        <v>-0.01169697981757415</v>
       </c>
       <c r="D97">
-        <v>0.09596080301627941</v>
+        <v>-0.00983696549726356</v>
       </c>
       <c r="E97">
-        <v>-0.7981485818222239</v>
+        <v>0.01566614486135658</v>
       </c>
       <c r="F97">
-        <v>0.07651108245921602</v>
+        <v>-0.1780882105462407</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2310825708795473</v>
+        <v>-0.2055630249373319</v>
       </c>
       <c r="C98">
-        <v>-0.07870663626883577</v>
+        <v>0.006922113689597527</v>
       </c>
       <c r="D98">
-        <v>0.09094198218207204</v>
+        <v>0.01416171601876625</v>
       </c>
       <c r="E98">
-        <v>0.03750743236165118</v>
+        <v>-0.09244340846360682</v>
       </c>
       <c r="F98">
-        <v>0.03355332556328836</v>
+        <v>-0.1282008874285288</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05939245639824763</v>
+        <v>-0.05753783320790667</v>
       </c>
       <c r="C99">
-        <v>-0.02455780347882029</v>
+        <v>-0.003369223744280655</v>
       </c>
       <c r="D99">
-        <v>0.005376001973778782</v>
+        <v>0.03493960881080452</v>
       </c>
       <c r="E99">
-        <v>0.05643898502508397</v>
+        <v>0.02635967715439686</v>
       </c>
       <c r="F99">
-        <v>-0.007593220181019741</v>
+        <v>0.00464181969065691</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0003656566648895319</v>
+        <v>-0.1240642733527072</v>
       </c>
       <c r="C100">
-        <v>0.009092172511297335</v>
+        <v>-0.0491976648148005</v>
       </c>
       <c r="D100">
-        <v>0.003737719768095607</v>
+        <v>0.3356126617338511</v>
       </c>
       <c r="E100">
-        <v>-0.1317225481442617</v>
+        <v>-0.9015274680847822</v>
       </c>
       <c r="F100">
-        <v>0.0007673159264639856</v>
+        <v>-0.05765324597013177</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02938475995474531</v>
+        <v>-0.02701423339000885</v>
       </c>
       <c r="C101">
-        <v>-0.02650550632314411</v>
+        <v>0.009153104639646649</v>
       </c>
       <c r="D101">
-        <v>-0.02680378706628475</v>
+        <v>0.03046036160129221</v>
       </c>
       <c r="E101">
-        <v>0.0001346323570693736</v>
+        <v>0.01088447641828921</v>
       </c>
       <c r="F101">
-        <v>-0.009545679598305616</v>
+        <v>-0.01257791388281402</v>
       </c>
     </row>
     <row r="102" spans="1:6">
